--- a/answers.xlsx
+++ b/answers.xlsx
@@ -5,22 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TLP-001\PycharmProjects\Mashov_Sagaz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TLP-001\Downloads\בהד\תפיסות פיקוד\gaf_100\Mashov-Sagaz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D951E0-F452-4E33-8238-6AEC96F2A83D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB51946F-6CD1-4E62-A77D-0F5A7E454859}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="106">
   <si>
     <t>Timestamp</t>
   </si>
@@ -140,6 +140,206 @@
   </si>
   <si>
     <t>הלוואי</t>
+  </si>
+  <si>
+    <t>החלטי/ת, סמכותי/ת ובטוח/ה בעצמו/ה</t>
+  </si>
+  <si>
+    <t>חכם</t>
+  </si>
+  <si>
+    <t>טיפש</t>
+  </si>
+  <si>
+    <t>חזק</t>
+  </si>
+  <si>
+    <t>חלש</t>
+  </si>
+  <si>
+    <t>מגלה אכפתיות כלפיי</t>
+  </si>
+  <si>
+    <t>יפה</t>
+  </si>
+  <si>
+    <t>מכוער</t>
+  </si>
+  <si>
+    <t>קשה</t>
+  </si>
+  <si>
+    <t>קל</t>
+  </si>
+  <si>
+    <t>יום יפה היום</t>
+  </si>
+  <si>
+    <t>יובר</t>
+  </si>
+  <si>
+    <t>מעניין</t>
+  </si>
+  <si>
+    <t>משעמם</t>
+  </si>
+  <si>
+    <t>יום גשום</t>
+  </si>
+  <si>
+    <t>מהווה דוגמה אישית, מייצג/ת בהתנהגותו/ה את ערכי התוכנית</t>
+  </si>
+  <si>
+    <t>חיובי מאוד</t>
+  </si>
+  <si>
+    <t>שלילי</t>
+  </si>
+  <si>
+    <t>נוכח/ת במופעי ההכשרה באופן רציף, מעורב/ת במתרחש בתוכנית, נגיש/ה וזמינ/ה לשאלות</t>
+  </si>
+  <si>
+    <t>נוכח</t>
+  </si>
+  <si>
+    <t>נוכח שלילית</t>
+  </si>
+  <si>
+    <t>יחס אישי טוב</t>
+  </si>
+  <si>
+    <t>יחס אישי לא טוב</t>
+  </si>
+  <si>
+    <t>מסייע/ת בעיבוד חוויות והתנסויות בהכשרה, דואג/ת לפתח ולקדם אותי, מציב/ה לי סטנדרט גבוה</t>
+  </si>
+  <si>
+    <t>מאתגר מאוד</t>
+  </si>
+  <si>
+    <t>לא מאתגר</t>
+  </si>
+  <si>
+    <t>אחלה יובר</t>
+  </si>
+  <si>
+    <t>החלטי/ת, סמכותי/ת ובטוח/ה בעצמו/ה, מעורר/ת בי מוטיבציה, מהווה דוגמה אישית, מייצג/ת בהתנהגותו/ה את ערכי התוכנית</t>
+  </si>
+  <si>
+    <t>חיובי פיקוד</t>
+  </si>
+  <si>
+    <t>שלילי פיקוד</t>
+  </si>
+  <si>
+    <t>נגיש/ה וזמינ/ה לשאלות</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>מגלה אכפתיות כלפיי, מכיר/ה אותי לעומק</t>
+  </si>
+  <si>
+    <t>חיובי אישי</t>
+  </si>
+  <si>
+    <t>שלילי אישי</t>
+  </si>
+  <si>
+    <t>מסייע/ת בעיבוד חוויות והתנסויות בהכשרה, דואג/ת לפתח ולקדם אותי, אף אחד מההיגדים אינו נכון בעיניי</t>
+  </si>
+  <si>
+    <t>אתגור +</t>
+  </si>
+  <si>
+    <t>אתגור -</t>
+  </si>
+  <si>
+    <t>כללי נוסף</t>
+  </si>
+  <si>
+    <t>נימצקי</t>
+  </si>
+  <si>
+    <t>החלטי/ת, סמכותי/ת ובטוח/ה בעצמו/ה, מהווה דוגמה אישית</t>
+  </si>
+  <si>
+    <t>שלילי אחד</t>
+  </si>
+  <si>
+    <t>נוכח/ת במופעי ההכשרה באופן רציף, מעורב/ת במתרחש בתוכנית, נגיש/ה וזמינ/ה לשאלות, אף אחד מההיגדים אינו נכון בעיניי</t>
+  </si>
+  <si>
+    <t>לא נוכח</t>
+  </si>
+  <si>
+    <t>מגלה אכפתיות כלפיי, אני מרגיש/ה שאני מסוגל/ת לשתף אותו</t>
+  </si>
+  <si>
+    <t>אישי טוב</t>
+  </si>
+  <si>
+    <t>אישי לא טוב</t>
+  </si>
+  <si>
+    <t>מציב/ה לי סטנדרט גבוה</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>אחלה</t>
+  </si>
+  <si>
+    <t>מעורר/ת בי מוטיבציה, מהווה דוגמה אישית, מייצג/ת בהתנהגותו/ה את ערכי התוכנית</t>
+  </si>
+  <si>
+    <t>נגיש/ה וזמינ/ה לשאלות, אף אחד מההיגדים אינו נכון בעיניי</t>
+  </si>
+  <si>
+    <t>די שלילי</t>
+  </si>
+  <si>
+    <t>יחס אישי +</t>
+  </si>
+  <si>
+    <t>יחס אישי -</t>
+  </si>
+  <si>
+    <t>מאתגר</t>
+  </si>
+  <si>
+    <t>אחלה נימצקי</t>
+  </si>
+  <si>
+    <t>נותן/ת משוב ישיר וכנה</t>
+  </si>
+  <si>
+    <t>נותן/ת משוב ישיר וכנה, מסייע/ת בעיבוד חוויות והתנסויות בהכשרה, דואג/ת לפתח ולקדם אותי</t>
+  </si>
+  <si>
+    <t>נוכח/ת במופעי ההכש0רה באופן רציף</t>
+  </si>
+  <si>
+    <t>שלילי מאוד</t>
+  </si>
+  <si>
+    <t>אחלה גבר</t>
+  </si>
+  <si>
+    <t>תגובות קצרות נעלמות</t>
+  </si>
+  <si>
+    <t>אחלה גבר! והכל+ אבל!</t>
+  </si>
+  <si>
+    <t>לא גבר! והכל+ אבל!</t>
+  </si>
+  <si>
+    <t>ב.	תשובה תיאורית - הצוערים התבקשו לפרט את נקודות החוזק והחולשה שזיהו בך כמפקד, בכל אחד מן התחומים. בשאלה הכללית, התבקשו הצוערים לנמק את הדירוג בו בחרו.
+המשוב מובא המלל שנכתב אודותיך בכל אחד מהתחומים, והוא מציג את נקודות החוזק והחולשה שצויינו לגביך בכל אחד מהם.
+ג.	בסוף המשוב- מובאת התייחסותו של הסג"ב החונך אותך בתפקידך.</t>
   </si>
 </sst>
 </file>
@@ -183,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -220,6 +420,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -287,7 +490,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:P13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:P19">
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Timestamp"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="שם המפקד:"/>
@@ -511,19 +714,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="22" width="18.85546875" customWidth="1"/>
+    <col min="1" max="22" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -573,107 +776,43 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
-        <v>45959.013046990745</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="12">
-        <v>5</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
-        <v>45959.014430891199</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" s="12">
-        <v>4</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+    </row>
+    <row r="3" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+    </row>
+    <row r="4" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -691,7 +830,7 @@
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -709,7 +848,7 @@
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -727,7 +866,7 @@
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -745,7 +884,7 @@
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -763,7 +902,7 @@
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -781,7 +920,7 @@
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -799,7 +938,7 @@
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -817,6 +956,504 @@
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
     </row>
+    <row r="12" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>45959.013046990745</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="O12" s="12">
+        <v>5</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>45959.014430891199</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="O13" s="12">
+        <v>4</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>45968.532965208331</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="O14" s="12">
+        <v>2</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>45968.533867465274</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="O15" s="12">
+        <v>5</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>45968.5391097338</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O16" s="12">
+        <v>2</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>45968.539676377317</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="O17" s="12">
+        <v>5</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>45968.540250578706</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="O18" s="12">
+        <v>3</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>45968.540900972221</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="O19" s="12">
+        <v>6</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>45968.540250578706</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="N20" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="O20" s="12">
+        <v>3</v>
+      </c>
+      <c r="P20" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>45968.540900972221</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="N21" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="O21" s="12">
+        <v>6</v>
+      </c>
+      <c r="P21" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/answers.xlsx
+++ b/answers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TLP-001\Downloads\בהד\תפיסות פיקוד\gaf_100\Mashov-Sagaz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB51946F-6CD1-4E62-A77D-0F5A7E454859}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A1562B-592B-4777-AA49-CEDBD677E695}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -337,9 +337,7 @@
     <t>לא גבר! והכל+ אבל!</t>
   </si>
   <si>
-    <t>ב.	תשובה תיאורית - הצוערים התבקשו לפרט את נקודות החוזק והחולשה שזיהו בך כמפקד, בכל אחד מן התחומים. בשאלה הכללית, התבקשו הצוערים לנמק את הדירוג בו בחרו.
-המשוב מובא המלל שנכתב אודותיך בכל אחד מהתחומים, והוא מציג את נקודות החוזק והחולשה שצויינו לגביך בכל אחד מהם.
-ג.	בסוף המשוב- מובאת התייחסותו של הסג"ב החונך אותך בתפקידך.</t>
+    <t xml:space="preserve"> תיאורית - הצוערים התבקשו לפרט את נקודות החוזק והחולשה שזיהו בך כמפקד, בכל אחד מן התחומים. בשאלה הכללית, התבקשו הצוערים לנמק את הדירוג </t>
   </si>
 </sst>
 </file>
@@ -718,7 +716,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/answers.xlsx
+++ b/answers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TLP-001\Downloads\בהד\תפיסות פיקוד\gaf_100\Mashov-Sagaz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A1562B-592B-4777-AA49-CEDBD677E695}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C130743A-F257-4277-B01D-5DD3639A6842}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -716,7 +716,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/answers.xlsx
+++ b/answers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TLP-001\Downloads\בהד\תפיסות פיקוד\gaf_100\Mashov-Sagaz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C130743A-F257-4277-B01D-5DD3639A6842}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D571316-A000-480D-A7DC-A390615F1CC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -328,9 +328,6 @@
     <t>אחלה גבר</t>
   </si>
   <si>
-    <t>תגובות קצרות נעלמות</t>
-  </si>
-  <si>
     <t>אחלה גבר! והכל+ אבל!</t>
   </si>
   <si>
@@ -338,6 +335,9 @@
   </si>
   <si>
     <t xml:space="preserve"> תיאורית - הצוערים התבקשו לפרט את נקודות החוזק והחולשה שזיהו בך כמפקד, בכל אחד מן התחומים. בשאלה הכללית, התבקשו הצוערים לנמק את הדירוג </t>
+  </si>
+  <si>
+    <t>מהווה דוגמה אישית</t>
   </si>
 </sst>
 </file>
@@ -716,7 +716,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1265,7 +1265,7 @@
         <v>80</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>81</v>
@@ -1365,10 +1365,10 @@
         <v>80</v>
       </c>
       <c r="D20" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="12" t="s">
         <v>103</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>104</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>82</v>
@@ -1415,7 +1415,7 @@
         <v>90</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>57</v>

--- a/answers.xlsx
+++ b/answers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TLP-001\Downloads\בהד\תפיסות פיקוד\gaf_100\Mashov-Sagaz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B2E683-7B62-49FA-9917-28DBEFD0F426}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524DFC64-CC14-4372-8413-125D62C9F695}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7968" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="114">
   <si>
     <t>Timestamp</t>
   </si>
@@ -216,9 +216,6 @@
     <t>פירוט:</t>
   </si>
   <si>
-    <t>סטרול</t>
-  </si>
-  <si>
     <t>החלטי/ת, סמכותי/ת ובטוח/ה בעצמו/ה, מייצג/ת בהתנהגותו/ה את ערכי התוכנית</t>
   </si>
   <si>
@@ -324,9 +321,6 @@
     <t>יום יפה היום</t>
   </si>
   <si>
-    <t>יובר</t>
-  </si>
-  <si>
     <t>מעניין</t>
   </si>
   <si>
@@ -408,9 +402,6 @@
     <t>כללי נוסף</t>
   </si>
   <si>
-    <t>נימצקי</t>
-  </si>
-  <si>
     <t>החלטי/ת, סמכותי/ת ובטוח/ה בעצמו/ה, מהווה דוגמה אישית</t>
   </si>
   <si>
@@ -465,33 +456,6 @@
     <t>אחלה נימצקי</t>
   </si>
   <si>
-    <t>איילה פלסנר (קצה"כ ג)</t>
-  </si>
-  <si>
-    <t>דגדגדג</t>
-  </si>
-  <si>
-    <t>גכדגכעדגכע</t>
-  </si>
-  <si>
-    <t>דגכגדעדגכ</t>
-  </si>
-  <si>
-    <t>גדעדגכדגכ</t>
-  </si>
-  <si>
-    <t>דגכדגכדגכ</t>
-  </si>
-  <si>
-    <t>גדכדגכדגכ</t>
-  </si>
-  <si>
-    <t>דגכדגכדגכדגכדגכ</t>
-  </si>
-  <si>
-    <t>דגכדגכדגכדג</t>
-  </si>
-  <si>
     <t>אלעד פינסלר (מפק"צ ב)</t>
   </si>
   <si>
@@ -526,6 +490,30 @@
   </si>
   <si>
     <t>נותן/ת משוב ישיר וכנה, מסייע/ת בעיבוד חוויות והתנסויות בהכשרה, דואג/ת לפתח ולקדם אותי</t>
+  </si>
+  <si>
+    <t>ישראל ישראלי (קצה"כ ג)</t>
+  </si>
+  <si>
+    <t>המפקד ידע להוביל בביטחון ובעדינות, וגרם לצוות להרגיש שהם מסוגלים להתגבר על כל משימה.</t>
+  </si>
+  <si>
+    <t>הוא נטה לפעמים לכעוס מהר, והאווירה סביבו נהייתה מתוחה מדי.</t>
+  </si>
+  <si>
+    <t>המפקד דרש שלמות גם במקומות שלא באמת היו קריטיים, וגרם לכולם לעבוד מתוך פחד ולא מתוך מוטיבציה.</t>
+  </si>
+  <si>
+    <t>למרות הלחץ, המפקד נשאר רגוע ומרוכז, ושידר תחושת יציבות לצוערים.</t>
+  </si>
+  <si>
+    <t>המפקד השקיע זמן בלשמוע את כולם, גם כשזה דרש ממנו סבלנות ואנרגיה.</t>
+  </si>
+  <si>
+    <t>המפקד התקשה להודות בטעות, וזה גרם לאחרים להרגיש שאין מקום לפגיעוּת או כנות.</t>
+  </si>
+  <si>
+    <t>זהו זה נגמר הסיפור!</t>
   </si>
 </sst>
 </file>
@@ -621,22 +609,6 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF5B3F86"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF5B3F86"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF5B3F86"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF5B3F86"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFF8F9FA"/>
@@ -660,13 +632,29 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B3F86"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B3F86"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B3F86"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B3F86"/>
+        </bottom>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="Form Responses 1-style" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" size="0" dxfId="0"/>
-      <tableStyleElement type="headerRow" dxfId="3"/>
-      <tableStyleElement type="firstRowStripe" dxfId="2"/>
-      <tableStyleElement type="secondRowStripe" dxfId="1"/>
+      <tableStyleElement type="wholeTable" size="0" dxfId="3"/>
+      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -913,9 +901,9 @@
   </sheetPr>
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1170,50 +1158,50 @@
       <c r="A12" s="5">
         <v>45959.013046990745</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="F12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="G12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="H12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="I12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="J12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="K12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="L12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="M12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="M12" s="6" t="s">
+      <c r="N12" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="O12" s="11">
         <v>5</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7"/>
     </row>
@@ -1221,50 +1209,50 @@
       <c r="A13" s="5">
         <v>45959.014430891199</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>14</v>
+      <c r="B13" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="F13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="H13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="I13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="J13" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="K13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="L13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="M13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="M13" s="6" t="s">
+      <c r="N13" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="O13" s="11">
         <v>4</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q13" s="7"/>
     </row>
@@ -1272,50 +1260,50 @@
       <c r="A14" s="5">
         <v>45968.532965208331</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>14</v>
+      <c r="B14" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="E14" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="F14" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="G14" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="H14" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="I14" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="J14" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="K14" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="L14" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="M14" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="L14" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="M14" s="6" t="s">
+      <c r="N14" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="O14" s="11">
         <v>2</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q14" s="7"/>
     </row>
@@ -1323,50 +1311,50 @@
       <c r="A15" s="5">
         <v>45968.533867465274</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" s="6" t="s">
+      <c r="L15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M15" s="6" t="s">
+      <c r="N15" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="O15" s="11">
         <v>5</v>
       </c>
       <c r="P15" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q15" s="7"/>
     </row>
@@ -1374,50 +1362,50 @@
       <c r="A16" s="5">
         <v>45968.5391097338</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>50</v>
+      <c r="B16" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="C16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="F16" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="G16" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="H16" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="I16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="K16" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" s="6" t="s">
+      <c r="L16" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="M16" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="N16" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>64</v>
       </c>
       <c r="O16" s="11">
         <v>2</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q16" s="7"/>
     </row>
@@ -1425,50 +1413,50 @@
       <c r="A17" s="5">
         <v>45968.539676377317</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>50</v>
+      <c r="B17" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="C17" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="F17" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="G17" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="H17" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="J17" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="H17" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="I17" s="6" t="s">
+      <c r="K17" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="L17" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="M17" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="N17" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>76</v>
       </c>
       <c r="O17" s="11">
         <v>5</v>
       </c>
       <c r="P17" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q17" s="7"/>
     </row>
@@ -1476,50 +1464,50 @@
       <c r="A18" s="5">
         <v>45968.540250578706</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="F18" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="G18" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="I18" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="J18" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H18" s="6" t="s">
+      <c r="K18" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="L18" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="M18" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="N18" s="11" t="s">
         <v>85</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="M18" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="N18" s="11" t="s">
-        <v>88</v>
       </c>
       <c r="O18" s="11">
         <v>3</v>
       </c>
       <c r="P18" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="Q18" s="7"/>
     </row>
@@ -1527,50 +1515,50 @@
       <c r="A19" s="5">
         <v>45968.540900972221</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>78</v>
+      <c r="B19" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="C19" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="6" t="s">
+      <c r="K19" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H19" s="6" t="s">
+      <c r="L19" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="M19" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="I19" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J19" s="6" t="s">
+      <c r="N19" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="N19" s="6" t="s">
-        <v>96</v>
       </c>
       <c r="O19" s="11">
         <v>6</v>
       </c>
       <c r="P19" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q19" s="7"/>
     </row>
@@ -1579,49 +1567,49 @@
         <v>45986.417372939817</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M20" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="N20" s="6" t="s">
-        <v>104</v>
+        <v>23</v>
+      </c>
+      <c r="M20" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="N20" s="11" t="s">
+        <v>112</v>
       </c>
       <c r="O20" s="11">
         <v>3</v>
       </c>
       <c r="P20" s="6" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1629,52 +1617,52 @@
         <v>45992.07796318287</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="O21" s="11">
         <v>6</v>
       </c>
       <c r="P21" s="6" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="Q21" s="6" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/answers.xlsx
+++ b/answers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TLP-001\Downloads\בהד\תפיסות פיקוד\gaf_100\Mashov-Sagaz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524DFC64-CC14-4372-8413-125D62C9F695}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E706EE89-EBC6-47CF-B391-019737D8C48F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7968" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="115">
   <si>
     <t>Timestamp</t>
   </si>
@@ -514,6 +514,9 @@
   </si>
   <si>
     <t>זהו זה נגמר הסיפור!</t>
+  </si>
+  <si>
+    <t>החלטי/ת, סמכותי/ת ובטוח/ה בעצמו/ה, אף אחד מההיגדים אינו נכון בעיניי</t>
   </si>
 </sst>
 </file>
@@ -903,7 +906,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1620,7 +1623,7 @@
         <v>94</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>95</v>
@@ -1629,7 +1632,7 @@
         <v>49</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>96</v>
